--- a/src/tabledesign/PEAK.xlsx
+++ b/src/tabledesign/PEAK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>NN</t>
   </si>
@@ -53,59 +53,71 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>char(8)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>smallint(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PEAK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is not PK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACCESSION:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1st Item of PK$PEAK:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2nd Item of PK$PEAK:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3rd Item of PK$PEAK:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>one MassBank File corresponds to many record of this table.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>For example, If the PK$PEAK: in the MassBank File have 5 lines, 5 records corresponds.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mapped from MassBank File</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>RELATIVE</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>char(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>smallint(6)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PEAK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>This is not PK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ACCESSION:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1st Item of PK$PEAK:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2nd Item of PK$PEAK:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3rd Item of PK$PEAK:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>one MassBank File corresponds to many record of this table.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>For example, If the PK$PEAK: in the MassBank File have 5 lines, 5 records corresponds.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>mapped from MassBank File</t>
+    <t>column namen should be RELATIVE_ because 'RELATIVE' reserved word for JavaDB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type in JavaDB</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -197,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,12 +236,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -243,6 +258,23 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
@@ -404,11 +436,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル3589" displayName="テーブル3589" ref="B5:H9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B5:H9"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="name of column" dataDxfId="6"/>
-    <tableColumn id="2" name="type in mysql" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル3589" displayName="テーブル3589" ref="B5:I9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B5:I9"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="name of column" dataDxfId="7"/>
+    <tableColumn id="2" name="type in mysql" dataDxfId="6"/>
+    <tableColumn id="8" name="type in JavaDB" dataDxfId="5"/>
     <tableColumn id="3" name="is null?" dataDxfId="4"/>
     <tableColumn id="4" name="is key?" dataDxfId="3"/>
     <tableColumn id="5" name="initial value" dataDxfId="2"/>
@@ -706,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -717,125 +750,146 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10" style="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D3" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
+      <c r="H7" s="2"/>
+      <c r="I7" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
+      <c r="H8" s="2"/>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="8" t="s">
-        <v>21</v>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
